--- a/templates/Excel/ST2/ST2_Tool_Monitoring.xlsx
+++ b/templates/Excel/ST2/ST2_Tool_Monitoring.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W2"/>
+  <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,105 +446,125 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>VPA_TF1_Tool_Life_OBS</t>
+          <t>Lip Ring Assembly_TF_Check Fixture_OBS</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>VPA_TF1_Tool_Life_cnt</t>
+          <t>Lip Ring Assembly_TF_Check Fixture_Tool_Life_cnt</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>VPA_TF2_Tool_Life_OBS</t>
+          <t>Lip Ring Assembly_TF_Check the Tip of the Fixture_OBS</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>VPA_TF2_Tool_Life_cnt</t>
+          <t>Lip Ring Assembly_TF_Check the Tip of the Fixture_Tool_Life_cnt</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>VPA_TF3_Tool_Life_OBS</t>
+          <t>Lip Ring Assembly_TF_Check Fixture wear out_OBS</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>VPA_TF3_Tool_Life_cnt</t>
+          <t>Lip Ring Assembly_TF_Check Fixture wear out_Tool_Life_cnt</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>VPA_BF1_Tool_Life_OBS</t>
+          <t>Lip Ring Assembly_BF_Check Fixture_OBS</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>VPA_BF1_Tool_Life_cnt</t>
+          <t>Lip Ring Assembly_BF_Check Fixture_Tool_Life_cnt</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>VPA_BF2_Tool_Life_OBS</t>
+          <t>Lip Ring Assembly_BF_Check Fixture wear out_OBS</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>VPA_BF2_Tool_Life_cnt</t>
+          <t>Lip Ring Assembly_BF_Check Fixture wear out_Tool_Life_cnt</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>VPA_BF3_Tool_Life_OBS</t>
+          <t>Spring Seat Assembly_TF_Check Fixture_OBS</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>VPA_BF3_Tool_Life_cnt</t>
+          <t>Spring Seat Assembly_TF_Check Fixture_Tool_Life_cnt</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>LTU_TF1_Tool_Life_OBS</t>
+          <t>Spring Seat Assembly_TF_Check the Tip of the Fixture_OBS</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>LTU_TF1_Tool_Life_cnt</t>
+          <t>Spring Seat Assembly_TF_Check the Tip of the Fixture_Tool_Life_cnt</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>LTU_TF2_Tool_Life_OBS</t>
+          <t>Spring Seat Assembly_TF_Check Fixture wear out_OBS</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>LTU_TF2_Tool_Life_cnt</t>
+          <t>Spring Seat Assembly_TF_Check Fixture wear out_Tool_Life_cnt</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>LTU_TF3_Tool_Life_OBS</t>
+          <t>Spring Seat Assembly_BF_Check Fixture_OBS</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>LTU_TF3_Tool_Life_cnt</t>
+          <t>Spring Seat Assembly_BF_Check Fixture_Tool_Life_cnt</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
+          <t>Spring Seat Assembly_BF_Check the Tip of the Fixture_OBS</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Spring Seat Assembly_BF_Check the Tip of the Fixture_Tool_Life_cnt</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Spring Seat Assembly_BF_Check Fixture wear out_OBS</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Spring Seat Assembly_BF_Check Fixture wear out_Tool_Life_cnt</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
           <t>Remark</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>QA-Sign</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Engg-Sign</t>
         </is>
@@ -553,12 +573,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-02-18T13:09</t>
+          <t>2025-02-06T14:07</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SHIFT1</t>
+          <t>SHIFT2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -578,7 +598,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -588,7 +608,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -598,7 +618,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -608,7 +628,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -618,7 +638,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -628,7 +648,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
@@ -638,7 +658,7 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>9</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
@@ -648,22 +668,42 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>11</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>222</t>
         </is>
       </c>
     </row>
